--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6612C50-290C-427A-BADC-C7C93EA4FE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8766D4-F838-4742-AD13-77ECA5DBF3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2835" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generation" sheetId="1" r:id="rId1"/>
+    <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
+    <sheet name="Generation_rival" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t xml:space="preserve">Unit </t>
   </si>
@@ -54,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -396,7 +397,7 @@
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -424,7 +425,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -438,7 +439,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -452,7 +453,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -466,7 +467,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -480,7 +481,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -492,90 +493,6 @@
       </c>
       <c r="D7" s="1">
         <v>10.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>155</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>400</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1">
-        <v>400</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>300</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>310</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1">
-        <v>350</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10.89</v>
       </c>
     </row>
   </sheetData>
@@ -583,13 +500,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>155</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>310</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>350</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,19 +764,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8766D4-F838-4742-AD13-77ECA5DBF3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B73D696-A20C-401C-BDA7-87809EFC24FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2835" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">Unit </t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Bid price [$/MWh]</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid_price </t>
   </si>
 </sst>
 </file>
@@ -388,16 +394,16 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -425,7 +431,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -439,7 +445,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -453,7 +459,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -467,7 +473,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -481,7 +487,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -505,12 +511,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,13 +524,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -538,7 +544,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -552,7 +558,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -566,7 +572,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -580,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -594,7 +600,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -614,9 +620,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,19 +773,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -800,9 +805,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8766D4-F838-4742-AD13-77ECA5DBF3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9CDC7B-A006-456A-A23E-7CD0AF47F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2835" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t xml:space="preserve">Unit </t>
   </si>
@@ -45,10 +45,13 @@
     <t>Node</t>
   </si>
   <si>
-    <t>Pmax [MW]</t>
+    <t>Pmax</t>
   </si>
   <si>
-    <t>Bid price [$/MWh]</t>
+    <t>Bid_price</t>
+  </si>
+  <si>
+    <t>Bid price</t>
   </si>
 </sst>
 </file>
@@ -384,20 +387,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,10 +411,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -425,7 +428,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -439,7 +442,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -453,7 +456,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -467,7 +470,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -481,7 +484,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -504,13 +507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -538,7 +541,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -552,7 +555,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -566,7 +569,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -580,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -594,7 +597,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>12</v>
       </c>

--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8766D4-F838-4742-AD13-77ECA5DBF3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7823174-781F-47EB-AFAE-2BCF9AD9F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2835" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,24 +475,12 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>60</v>
+        <f>60+155</f>
+        <v>215</v>
       </c>
       <c r="D6" s="1">
-        <v>26.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>155</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.52</v>
+        <f>(26.11+10.52)/2</f>
+        <v>18.314999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -502,10 +490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,24 +576,12 @@
         <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>310</v>
+        <f>350+310</f>
+        <v>660</v>
       </c>
       <c r="D6" s="1">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>350</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.89</v>
+        <f>(10.52+10.89)/2</f>
+        <v>10.705</v>
       </c>
     </row>
   </sheetData>
@@ -620,6 +596,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -763,15 +748,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
   <ds:schemaRefs>
@@ -782,6 +758,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -797,12 +781,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9CDC7B-A006-456A-A23E-7CD0AF47F2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3ABEC-A534-4AEE-BB54-34097DCB3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,25 +478,17 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1">
-        <v>26.11</v>
+        <v>18.315000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>155</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.52</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -507,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,25 +583,17 @@
         <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>310</v>
+        <v>660</v>
       </c>
       <c r="D6" s="1">
-        <v>10.52</v>
+        <v>10.705</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>350</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.89</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -623,6 +607,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -766,15 +759,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
   <ds:schemaRefs>
@@ -785,6 +769,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -800,12 +792,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7823174-781F-47EB-AFAE-2BCF9AD9F891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF5279-AC77-4343-8A55-4825CCB5C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,13 +95,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,46 +453,320 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
       <c r="C4" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>20.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>13</v>
-      </c>
       <c r="C5" s="1">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>20.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>350</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>591</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C16" s="1">
         <f>60+155</f>
         <v>215</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D16" s="1">
         <f>(26.11+10.52)/2</f>
         <v>18.314999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>B16+1</f>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B24" si="0">B17+1</f>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>B22+1</f>
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -490,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,55 +800,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>10.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>18</v>
+        <f>B2+1</f>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>6.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>21</v>
+        <f t="shared" ref="B4:B16" si="0">B3+1</f>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>5.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -570,18 +859,295 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>155</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>400</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>400</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>300</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C24" s="1">
         <f>350+310</f>
         <v>660</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D24" s="1">
         <f>(10.52+10.89)/2</f>
         <v>10.705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7c5f4e9a006291/Documents/Optimisation in MS/assignement/optimization_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA3ABEC-A534-4AEE-BB54-34097DCB3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5DA3ABEC-A534-4AEE-BB54-34097DCB3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0E0C7F-325D-435E-B990-DC2E08266A82}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,20 +391,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -425,10 +429,10 @@
         <v>152</v>
       </c>
       <c r="D2" s="1">
-        <v>13.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -439,10 +443,10 @@
         <v>152</v>
       </c>
       <c r="D3" s="1">
-        <v>13.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -453,10 +457,10 @@
         <v>350</v>
       </c>
       <c r="D4" s="1">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -467,10 +471,10 @@
         <v>591</v>
       </c>
       <c r="D5" s="1">
-        <v>20.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -481,10 +485,10 @@
         <v>215</v>
       </c>
       <c r="D6" s="1">
-        <v>18.315000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -499,13 +503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -530,10 +534,10 @@
         <v>155</v>
       </c>
       <c r="D2" s="1">
-        <v>10.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -544,10 +548,10 @@
         <v>400</v>
       </c>
       <c r="D3" s="1">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -558,10 +562,10 @@
         <v>400</v>
       </c>
       <c r="D4" s="1">
-        <v>5.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -572,10 +576,10 @@
         <v>300</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -586,10 +590,10 @@
         <v>660</v>
       </c>
       <c r="D6" s="1">
-        <v>10.705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -601,21 +605,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -759,24 +748,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -792,4 +779,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f4e52737174c835/Dokumenter/DTU/Optimalization in modern Power Systems/optimization_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF5279-AC77-4343-8A55-4825CCB5C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AFDF5279-AC77-4343-8A55-4825CCB5C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375233BA-EF6C-4F55-9925-6844A64BDA64}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -397,19 +397,19 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -434,10 +434,10 @@
         <v>152</v>
       </c>
       <c r="D2" s="1">
-        <v>13.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -448,10 +448,10 @@
         <v>152</v>
       </c>
       <c r="D3" s="1">
-        <v>13.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -518,10 +518,10 @@
         <v>350</v>
       </c>
       <c r="D8" s="1">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -602,10 +602,10 @@
         <v>591</v>
       </c>
       <c r="D14" s="1">
-        <v>20.93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -631,11 +631,10 @@
         <v>215</v>
       </c>
       <c r="D16" s="1">
-        <f>(26.11+10.52)/2</f>
-        <v>18.314999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -650,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -665,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -680,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -695,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -710,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -725,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -740,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -755,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -782,9 +781,9 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -812,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -827,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -842,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -857,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -872,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -887,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -902,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -917,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -932,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -947,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -962,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -977,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -992,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>9</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>10</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>11</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>10.705</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1162,15 +1161,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -1314,6 +1304,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
   <ds:schemaRefs>
@@ -1324,14 +1323,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1347,4 +1338,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF5279-AC77-4343-8A55-4825CCB5C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA3347-D6DE-488C-9392-65CDE98F1209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6405" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>152</v>
       </c>
       <c r="D2" s="1">
-        <v>13.32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>152</v>
       </c>
       <c r="D3" s="1">
-        <v>13.32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>350</v>
       </c>
       <c r="D8" s="1">
-        <v>20.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>591</v>
       </c>
       <c r="D14" s="1">
-        <v>20.93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,8 +631,7 @@
         <v>215</v>
       </c>
       <c r="D16" s="1">
-        <f>(26.11+10.52)/2</f>
-        <v>18.314999999999998</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,15 +775,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -811,8 +810,9 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -826,8 +826,9 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -841,8 +842,9 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -856,8 +858,9 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -871,8 +874,9 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -886,8 +890,9 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -901,8 +906,9 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -916,8 +922,9 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -931,8 +938,9 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -946,8 +954,9 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -961,8 +970,9 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -976,8 +986,9 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -991,8 +1002,9 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1006,8 +1018,9 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1021,6 +1034,7 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1033,7 +1047,7 @@
         <v>155</v>
       </c>
       <c r="D17" s="1">
-        <v>10.52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,7 +1075,7 @@
         <v>400</v>
       </c>
       <c r="D19" s="1">
-        <v>6.02</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,7 +1117,7 @@
         <v>400</v>
       </c>
       <c r="D22" s="1">
-        <v>5.47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1131,7 @@
         <v>300</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,8 +1146,7 @@
         <v>660</v>
       </c>
       <c r="D24" s="1">
-        <f>(10.52+10.89)/2</f>
-        <v>10.705</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">

--- a/Generation Data.xlsx
+++ b/Generation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7c5f4e9a006291/Documents/Optimisation in MS/assignement/optimization_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5DA3ABEC-A534-4AEE-BB54-34097DCB3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0E0C7F-325D-435E-B990-DC2E08266A82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2412A-FB7A-4EE6-BF22-11A3C070CD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25200" yWindow="-3660" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,20 +387,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>152</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>350</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>591</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>215</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,80 +516,80 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>152</v>
-      </c>
-      <c r="D3" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>350</v>
-      </c>
-      <c r="D4" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>591</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>660</v>
+      </c>
+      <c r="D6" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>215</v>
-      </c>
-      <c r="D6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -499,112 +600,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1">
-        <v>155</v>
-      </c>
-      <c r="D2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>400</v>
-      </c>
-      <c r="D4" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>300</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
-        <v>660</v>
-      </c>
-      <c r="D6" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -748,15 +753,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -764,6 +760,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -781,14 +785,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
   <ds:schemaRefs>
